--- a/IOexcel/31-04-2024.xlsx
+++ b/IOexcel/31-04-2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\JAVA\Java.Project\Project_ComputerManagement\ComputerManagement\IOexcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Java\swing-02-computer-management\IOexcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{256539B6-8EA4-4CAE-BBA5-0F97BDC34F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514D4BDA-8A6F-4F2C-8A83-2C47D5C2702F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Computer" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="49">
   <si>
     <t>Mã máy</t>
   </si>
@@ -518,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A10" sqref="A10:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,6 +769,214 @@
         <v>28</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/IOexcel/31-04-2024.xlsx
+++ b/IOexcel/31-04-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Java\swing-02-computer-management\IOexcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514D4BDA-8A6F-4F2C-8A83-2C47D5C2702F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46F5E1F-7672-4A0E-BAE6-92EBC606F398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="49">
   <si>
     <t>Mã máy</t>
   </si>
@@ -518,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:H17"/>
+      <selection activeCell="A34" sqref="A34:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -977,6 +977,838 @@
         <v>28</v>
       </c>
     </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>23</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37">
+        <v>45</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38">
+        <v>55</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40">
+        <v>33</v>
+      </c>
+      <c r="D40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41">
+        <v>32</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44">
+        <v>23</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45">
+        <v>45</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46">
+        <v>55</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48">
+        <v>33</v>
+      </c>
+      <c r="D48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49">
+        <v>32</v>
+      </c>
+      <c r="D49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
